--- a/src/experiment/results/average_metrics_per_model_dataset.xlsx
+++ b/src/experiment/results/average_metrics_per_model_dataset.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Optimal-Robust-Feature-Selection-For-Support-Vector-Machines-With-Pinball-Loss\src\experiment\results\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{47D5A65F-C4B2-40E2-A7E2-A81FA048D22B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{67FCF96C-BB5A-49B4-9C08-EE446373C9AC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="4830" yWindow="2430" windowWidth="21600" windowHeight="11385" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -644,6 +644,7 @@
       <b/>
       <sz val="11"/>
       <name val="Calibri"/>
+      <family val="2"/>
     </font>
   </fonts>
   <fills count="2">
@@ -654,7 +655,7 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="2">
+  <borders count="3">
     <border>
       <left/>
       <right/>
@@ -677,15 +678,26 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color auto="1"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -991,7 +1003,7 @@
   <dimension ref="A1:I29"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="I19" sqref="I19"/>
+      <selection activeCell="I8" sqref="I8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1035,7 +1047,7 @@
       </c>
     </row>
     <row r="2" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A2" t="s">
+      <c r="A2" s="2" t="s">
         <v>9</v>
       </c>
       <c r="B2" t="s">
@@ -1064,7 +1076,7 @@
       </c>
     </row>
     <row r="3" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A3" t="s">
+      <c r="A3" s="2" t="s">
         <v>9</v>
       </c>
       <c r="B3" t="s">
@@ -1093,7 +1105,7 @@
       </c>
     </row>
     <row r="4" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A4" t="s">
+      <c r="A4" s="2" t="s">
         <v>9</v>
       </c>
       <c r="B4" t="s">
@@ -1122,7 +1134,7 @@
       </c>
     </row>
     <row r="5" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A5" t="s">
+      <c r="A5" s="2" t="s">
         <v>9</v>
       </c>
       <c r="B5" t="s">
@@ -1151,7 +1163,7 @@
       </c>
     </row>
     <row r="6" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A6" t="s">
+      <c r="A6" s="3" t="s">
         <v>42</v>
       </c>
       <c r="B6" t="s">
@@ -1180,7 +1192,7 @@
       </c>
     </row>
     <row r="7" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A7" t="s">
+      <c r="A7" s="3" t="s">
         <v>42</v>
       </c>
       <c r="B7" t="s">
@@ -1209,7 +1221,7 @@
       </c>
     </row>
     <row r="8" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A8" t="s">
+      <c r="A8" s="3" t="s">
         <v>42</v>
       </c>
       <c r="B8" t="s">
@@ -1238,7 +1250,7 @@
       </c>
     </row>
     <row r="9" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A9" t="s">
+      <c r="A9" s="3" t="s">
         <v>42</v>
       </c>
       <c r="B9" t="s">
@@ -1267,7 +1279,7 @@
       </c>
     </row>
     <row r="10" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A10" t="s">
+      <c r="A10" s="3" t="s">
         <v>71</v>
       </c>
       <c r="B10" t="s">
@@ -1296,7 +1308,7 @@
       </c>
     </row>
     <row r="11" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A11" t="s">
+      <c r="A11" s="3" t="s">
         <v>71</v>
       </c>
       <c r="B11" t="s">
@@ -1325,7 +1337,7 @@
       </c>
     </row>
     <row r="12" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A12" t="s">
+      <c r="A12" s="3" t="s">
         <v>71</v>
       </c>
       <c r="B12" t="s">
@@ -1354,7 +1366,7 @@
       </c>
     </row>
     <row r="13" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A13" t="s">
+      <c r="A13" s="3" t="s">
         <v>71</v>
       </c>
       <c r="B13" t="s">
@@ -1383,7 +1395,7 @@
       </c>
     </row>
     <row r="14" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A14" t="s">
+      <c r="A14" s="3" t="s">
         <v>94</v>
       </c>
       <c r="B14" t="s">
@@ -1412,7 +1424,7 @@
       </c>
     </row>
     <row r="15" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A15" t="s">
+      <c r="A15" s="3" t="s">
         <v>94</v>
       </c>
       <c r="B15" t="s">
@@ -1441,7 +1453,7 @@
       </c>
     </row>
     <row r="16" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A16" t="s">
+      <c r="A16" s="3" t="s">
         <v>94</v>
       </c>
       <c r="B16" t="s">
@@ -1470,7 +1482,7 @@
       </c>
     </row>
     <row r="17" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A17" t="s">
+      <c r="A17" s="3" t="s">
         <v>94</v>
       </c>
       <c r="B17" t="s">
@@ -1499,7 +1511,7 @@
       </c>
     </row>
     <row r="18" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A18" t="s">
+      <c r="A18" s="3" t="s">
         <v>123</v>
       </c>
       <c r="B18" t="s">
@@ -1528,7 +1540,7 @@
       </c>
     </row>
     <row r="19" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A19" t="s">
+      <c r="A19" s="3" t="s">
         <v>123</v>
       </c>
       <c r="B19" t="s">
@@ -1557,7 +1569,7 @@
       </c>
     </row>
     <row r="20" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A20" t="s">
+      <c r="A20" s="3" t="s">
         <v>123</v>
       </c>
       <c r="B20" t="s">
@@ -1586,7 +1598,7 @@
       </c>
     </row>
     <row r="21" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A21" t="s">
+      <c r="A21" s="3" t="s">
         <v>123</v>
       </c>
       <c r="B21" t="s">
@@ -1615,7 +1627,7 @@
       </c>
     </row>
     <row r="22" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A22" t="s">
+      <c r="A22" s="3" t="s">
         <v>152</v>
       </c>
       <c r="B22" t="s">
@@ -1644,7 +1656,7 @@
       </c>
     </row>
     <row r="23" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A23" t="s">
+      <c r="A23" s="3" t="s">
         <v>152</v>
       </c>
       <c r="B23" t="s">
@@ -1673,7 +1685,7 @@
       </c>
     </row>
     <row r="24" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A24" t="s">
+      <c r="A24" s="3" t="s">
         <v>152</v>
       </c>
       <c r="B24" t="s">
@@ -1702,7 +1714,7 @@
       </c>
     </row>
     <row r="25" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A25" t="s">
+      <c r="A25" s="3" t="s">
         <v>152</v>
       </c>
       <c r="B25" t="s">
@@ -1731,7 +1743,7 @@
       </c>
     </row>
     <row r="26" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A26" t="s">
+      <c r="A26" s="3" t="s">
         <v>173</v>
       </c>
       <c r="B26" t="s">
@@ -1760,7 +1772,7 @@
       </c>
     </row>
     <row r="27" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A27" t="s">
+      <c r="A27" s="3" t="s">
         <v>173</v>
       </c>
       <c r="B27" t="s">
@@ -1789,7 +1801,7 @@
       </c>
     </row>
     <row r="28" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A28" t="s">
+      <c r="A28" s="3" t="s">
         <v>173</v>
       </c>
       <c r="B28" t="s">
@@ -1818,7 +1830,7 @@
       </c>
     </row>
     <row r="29" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A29" t="s">
+      <c r="A29" s="3" t="s">
         <v>173</v>
       </c>
       <c r="B29" t="s">
